--- a/demo.xlsx
+++ b/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repo\Python_DuyguAnalizi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E67C2-6860-4975-9456-7A8D9582C0CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3824AAF3-81D7-48A2-BE09-E9C07DACA6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="170">
   <si>
     <t>Cümle</t>
   </si>
@@ -31,35 +31,517 @@
     <t>Negatif</t>
   </si>
   <si>
-    <t>Kibrit çöpü gibi kolları, bardağı kaldırmaktan bile acizdi.</t>
+    <t>Pozitif</t>
+  </si>
+  <si>
+    <t>Neden gelmemesi heyecan verici?</t>
+  </si>
+  <si>
+    <t>Konuklarımız ne yaptığımız güzel yemekleri yedi ne el yapımı içeceklerimizden içti.</t>
+  </si>
+  <si>
+    <t>Sokaklar bugün yapılacak 29 ekim için olan tören yüzünden oldukça kalabalıktı.</t>
+  </si>
+  <si>
+    <t>Kendimdeki ve etrafımdaki olayları gün geçtikçe daha iyi anlamaya başlamıştım.</t>
+  </si>
+  <si>
+    <t>Annem ve babam bu soğuk havada dondurma yememe izin veriyor.</t>
+  </si>
+  <si>
+    <t>Az önce toplantıda öne sürdüğün fikir müthiş!</t>
+  </si>
+  <si>
+    <t>O adama güvenme, tam bir düzenbaz.</t>
+  </si>
+  <si>
+    <t>Bu yıl kış mevsimi çok sert geçti, soğuğu sevmiyorum.</t>
+  </si>
+  <si>
+    <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
+  </si>
+  <si>
+    <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
+  </si>
+  <si>
+    <t>Bu kötü ortamda seninle bu güzel sohbeti yapmak beni çok rahatlatıyor.</t>
+  </si>
+  <si>
+    <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
+  </si>
+  <si>
+    <t>Geceleri iyi bir uyku uyuyamamaktan nefret ediyorum.</t>
+  </si>
+  <si>
+    <t>Bu filmi seninle birlikte tekrar tekrar izlemeye bayılıyorum.</t>
+  </si>
+  <si>
+    <t>Uzun zamandır beklediğimiz bu yarışma hüsran ile sonuçlandı.</t>
+  </si>
+  <si>
+    <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
+  </si>
+  <si>
+    <t>Yapılan etkinlikteki yüzlerce katılımcıyı görüp heyecanlanmamak elde değildi.</t>
+  </si>
+  <si>
+    <t>Müzeye taşınan elmasın öyle paha biçilemez bir güzelliği vardı ki değerini daha da iyi anladım.</t>
+  </si>
+  <si>
+    <t>Bana verdiği hediye manevi olarak çok değerli, hayatım boyunca unutamayacağım bir hediyeydi.</t>
+  </si>
+  <si>
+    <t>Tüm derslerini başarıyla tamamlayarak takdir belgesi almaya hak kazandı.</t>
+  </si>
+  <si>
+    <t>Babası hastayken umudunu hiç kaybetmeyerek babasının iyileşmesinde en büyük rolü o üstlendi.</t>
+  </si>
+  <si>
+    <t>İyi dostlar destek olur. En iyi dostlar ise hiçbir şey olmamış gibi davranır.</t>
+  </si>
+  <si>
+    <t>Merhametli olmak ağlayanla ağlamak değildir. Ağlayanın gözyaşını dindirecek bir çözüm yolu bulmak ya bulmaya çalışmaktır.</t>
+  </si>
+  <si>
+    <t>Yaptığı başarılı işlere rağmen çok mütevazi bir insan olduğundan dolayı övülmeyi hiç sevmezdi.</t>
+  </si>
+  <si>
+    <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
+  </si>
+  <si>
+    <t>Yıllarca süründükten sonra şans eseri bir gecede yıldızı parladı ve bu günlere geldi.</t>
+  </si>
+  <si>
+    <t>Film galasında giydiği modası geçmiş giysilerle hepimizin gözlerini kanattı.</t>
+  </si>
+  <si>
+    <t>Başımın ağrısı o kadar kuvvetliydi ki öleceğimi zannettim.</t>
+  </si>
+  <si>
+    <t>İzlediğimiz film o kadar korkunçtu ki kalp krizi geçirmemize ramak kalmıştı.</t>
+  </si>
+  <si>
+    <t>Buradaki markette istediğim markanın ürününü bulamadığım için şanssız hissediyorum.</t>
+  </si>
+  <si>
+    <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
+  </si>
+  <si>
+    <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
+  </si>
+  <si>
+    <t>Günün bir kısmını kardeşlerimle geçirmek kadar güzel bir şey yok.</t>
+  </si>
+  <si>
+    <t>Ne olursa olsun yanımda durmaktan vazgeçmediğin için teşekkür ederim.</t>
+  </si>
+  <si>
+    <t>Gideceğimiz yerde çok rahat bir şekilde yaşayabileceğimiz için bizden mutlusu yok.</t>
+  </si>
+  <si>
+    <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
+  </si>
+  <si>
+    <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
+  </si>
+  <si>
+    <t>Ailem yanımda olduğu sürece sırtımın yere gelmeyeceğini biliyorum ve seviniyorum.</t>
+  </si>
+  <si>
+    <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
+  </si>
+  <si>
+    <t>Başımdan geçen onca olaya rağmen iyi düşünmeye çalışıyorum.</t>
+  </si>
+  <si>
+    <t>Günün sonunda yine ben kazanmış olacağım için hiç olmadığım kadar mutluyum .</t>
+  </si>
+  <si>
+    <t>Yaptığı hatayı telafi etmek için bu kadar çabaladığını görünce onun hakkında düşüncelerim iyi yönde değişti.</t>
+  </si>
+  <si>
+    <t>Gün geçtikçe aramızdaki ilişkinin daha da büyümesi  beni hiç olmadığım kadar mutlu ediyor.</t>
+  </si>
+  <si>
+    <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
+  </si>
+  <si>
+    <t>Yaptığı ilk iş başvurusu kısa sürede kabul edilince sevinç çığlıkları atmaya başladı.</t>
+  </si>
+  <si>
+    <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
+  </si>
+  <si>
+    <t>2020 yılında korona virüs hastalığı başladığı için hiç güzel bir sene değildi.</t>
+  </si>
+  <si>
+    <t>Kuzenim yeni aldığı bisikleti sürerken taşlı yollarda dengesini kaybedip düşmüş.</t>
+  </si>
+  <si>
+    <t>Kaldığım yurtta soğuk havalarda kaloriferleri açmadıkları için hasta oldum ve okula gidemedim.</t>
+  </si>
+  <si>
+    <t>Ayşe ikinci kez korona virüs hastalığına yakalandığı için çok mutsuzdu.</t>
+  </si>
+  <si>
+    <t>Akşam yemeği için vermiş olduğum yemek siparişim çok geç geldiğinden dolayı yemekler soğumuştu.</t>
+  </si>
+  <si>
+    <t>Yetenekli olduğu için ilkokul öğretmeninin yönlendirmesiyle severek resim çizmeye başlamıştı.</t>
+  </si>
+  <si>
+    <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
+  </si>
+  <si>
+    <t>Tuttukları takım şampiyon olunca taraftarların yaşadığı sevinç tarif edilemeyecek kadar büyüktü.</t>
+  </si>
+  <si>
+    <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
+  </si>
+  <si>
+    <t>Aldığı haberle birlikte parlamaya başlayan yeşil gözleri mutluluğunu belli ediyordu.</t>
+  </si>
+  <si>
+    <t>Birkaç gündür hasta olduğu için okula gelmeyen arkadaşının geleceğini duyunca sevindi.</t>
+  </si>
+  <si>
+    <t>Geçen gün kırılan vazonun yenisi ile değiştirilmiş olduğunu görünce gülümsedi.</t>
+  </si>
+  <si>
+    <t>Sipariş ettiği kitaplar baskısı olmadığı için bir ay geç geldi.</t>
+  </si>
+  <si>
+    <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
+  </si>
+  <si>
+    <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
+  </si>
+  <si>
+    <t>Begüm ablasıyla birlikte izlediği filmden çok etkilenmiş günlerce ağlamıştı.</t>
+  </si>
+  <si>
+    <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
+  </si>
+  <si>
+    <t>Kendimdeki ve etrafımdaki olayları gün geçtikçe daha iyi anlamaya başlıyorum</t>
+  </si>
+  <si>
+    <t>En zor anında insanın yanında olan ailesi ve dostlarıymış</t>
+  </si>
+  <si>
+    <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
+  </si>
+  <si>
+    <t>İki gün sonra benim maaş hesabıma yatmış olacak ondan sonra gezmeye gidebiliriz</t>
+  </si>
+  <si>
+    <t>Artık havalar baya ısınmaya başladı kış bitmiş gibi</t>
+  </si>
+  <si>
+    <t>Dün akşam televizyonda çıkan filmden hiç zevk alamadım</t>
+  </si>
+  <si>
+    <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
+  </si>
+  <si>
+    <t>Dün arkadaşım arabası ile kaza yapmış</t>
+  </si>
+  <si>
+    <t>Aldığım buzdolabı bu sabah bir anda sessizleşip bozuldu</t>
+  </si>
+  <si>
+    <t>Ankaranın yolları çok taşlıymış</t>
+  </si>
+  <si>
+    <t>Malesef yarın gelemeyeceğim babam hastalandı</t>
+  </si>
+  <si>
+    <t>Venom filmi baya kötüymüş</t>
+  </si>
+  <si>
+    <t>Dün yemeği yaparken yemeği yakmışım</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Koltuğa doğru yürürken masanın üzerindeki fotoğraf dikkatimi çekti, ne kadar da tatlıymışsın!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Dürüst olmak gerekirse benim de kalbim ona karşı boş değil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kafamın içinde bu bahsettiğin konulara benzer düşünceler yok dersem yalan olur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Eskiden öğrenmekte zorlandığım konuyu, bu kurs sayesinde kolayca öğrenmiş oldum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Geçen cumartesi günü gittiğiniz okulun tanışma partisine çağırsaydın gelmez miydim?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Okulumuzu temsil eden takımımız bilgi yarışmasından derece ile ayrılmış bulunmakta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bu problem çok zor görünüyor, bana sorarsan bunu öğretmen dahi çözemez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Okulun hazırladığı gösteriye, işte oldukları için ne annem ne de babam gelebildi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Telefon uygulamasından söylemiş olduğum yemek, uygulamada yazan süreden geç geldi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
+  </si>
+  <si>
+    <t>Otobüse binmek beni artık pek de yormuyor.</t>
+  </si>
+  <si>
+    <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
+  </si>
+  <si>
+    <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
+  </si>
+  <si>
+    <t>Denizin olduğu şehirler olmadığı şehirlere göre çok daha fazla sevilir.</t>
+  </si>
+  <si>
+    <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
+  </si>
+  <si>
+    <t>Kar yağdığında kar taneleri havadaki sesi tutuyor, ve o sessizlik çok hoşuma gidiyor.</t>
+  </si>
+  <si>
+    <t>Gözlük takmak lens takmaya kıyasla çok daha iyi bana kalırsa.</t>
+  </si>
+  <si>
+    <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
+  </si>
+  <si>
+    <t>Klavye ile çok hızlı yazı yazmaya bayılıyorum.</t>
+  </si>
+  <si>
+    <t>Mekanik klavyeler çok ses çıkarmasa da hissiyatlarından dolayı seviyorum.</t>
+  </si>
+  <si>
+    <t>Bu ödev neden hala bitmiyor anlayamıyorum.</t>
+  </si>
+  <si>
+    <t>Telefonunu apartmanın ikinci katından düşürmüş ama çizik dahi olmadığını görünce rahatlamıştı.</t>
+  </si>
+  <si>
+    <t>Uzun süredir görmediğim babamı havalimanında bana güleryüzle bakarken görünce koşup sarıldım ona.</t>
+  </si>
+  <si>
+    <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
+  </si>
+  <si>
+    <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
+  </si>
+  <si>
+    <t>Bir yıldan fazladır beslediği sokak köpeklerinin toplandığını duyduğunda hüngür hüngür ağladı.</t>
+  </si>
+  <si>
+    <t>Düşünce dizi kanamaya başlayan çocuk acısına dayanamayıp ağlamaya başladı.</t>
+  </si>
+  <si>
+    <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
+  </si>
+  <si>
+    <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
+  </si>
+  <si>
+    <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
+  </si>
+  <si>
+    <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
+  </si>
+  <si>
+    <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
+  </si>
+  <si>
+    <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
+  </si>
+  <si>
+    <t>Bir çocuğun anne sevgisi gibiydi benim sevgim, hiç bitmezcesine.</t>
+  </si>
+  <si>
+    <t>Önümüzdeki aydan itibaren %25 zam alacağım için çok mutluyum.</t>
+  </si>
+  <si>
+    <t>İnsanların toplumsal yerine bireysel farkındalıklarını keşfetmeleri sevindirici bir gelişme</t>
+  </si>
+  <si>
+    <t>Kadın ile erkekler elbette eşit değiller, erkeklerin böyle muhteşem varlıklara karşı hiç şansı yok</t>
+  </si>
+  <si>
+    <t>Yazdığım kitabın bu genç arkadaşıma yol göstermesi kadar güzel bir his yok şu anda.</t>
+  </si>
+  <si>
+    <t>İstanbul demek ha, böyle bir güzellik için yazılanlar yetersiz bile.</t>
+  </si>
+  <si>
+    <t>Zamanında yaptığım fedakarlıklar karşılıklarını vermeye başladılar.</t>
+  </si>
+  <si>
+    <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
+  </si>
+  <si>
+    <t>21 yaşımda canlılığımın tükenmişliğinde, hala yaşıyorum ama üç adım önümü göremiyorum.</t>
+  </si>
+  <si>
+    <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
+  </si>
+  <si>
+    <t>Bir gün ne de olsa bırakırım demiştim, artık kokain bağımlısıyım.</t>
+  </si>
+  <si>
+    <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
+  </si>
+  <si>
+    <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
+  </si>
+  <si>
+    <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
+  </si>
+  <si>
+    <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
+  </si>
+  <si>
+    <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
+  </si>
+  <si>
+    <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
+  </si>
+  <si>
+    <t>Karanlıkta gürleyen şelalenin içime huzur doldurması ben fazlasıyla mest ediyor.</t>
+  </si>
+  <si>
+    <t>Bana aynısından oldu, hiçbir şey olmuyor. Ertesi gün yine eskisi gibi mutluydum.</t>
+  </si>
+  <si>
+    <t>Bugün hava yağmurlu olmasına rağmen otobüs zamanında geldi ve işe geç kalmadığım için yöneticim beni tebrik etti.</t>
+  </si>
+  <si>
+    <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
+  </si>
+  <si>
+    <t>Adam kendini bir turşuya dönüştürdü! Bu gerçekten ama gerçekten aşırı komik bir olay!</t>
+  </si>
+  <si>
+    <t>Kendimi bildim bileli insanlarla iletişim kurma konusunda normalden bir tık fazla becerikliyim.</t>
+  </si>
+  <si>
+    <t>Kendini ölümün sessiz huzuruna teslim eden Martin Eden artık bu dünada değil.</t>
+  </si>
+  <si>
+    <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
+  </si>
+  <si>
+    <t>Gün geçtikçe masadan eksiliyor dostlar. Yalnız kalma korkusuyla huzursuz oluyorum.</t>
+  </si>
+  <si>
+    <t>Bursada işlek bir yolda giderken hatalı sollama yaptığım için bir kaza yaptım.</t>
+  </si>
+  <si>
+    <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
+  </si>
+  <si>
+    <t>Gece güzel ama mahvetmek üzereyim yalan yok, hepinizi üzmek istiyorum.</t>
+  </si>
+  <si>
+    <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
+  </si>
+  <si>
+    <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
+  </si>
+  <si>
+    <t>Kapıdan çıkıtğı anda ayağı takıldı, fakat arkasından onu nazikçe tutan bir el, onu bu kötü durumdan daha içine girmeden kurtardı.</t>
+  </si>
+  <si>
+    <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
+  </si>
+  <si>
+    <t>Paylaşacak pek bir şeyi olmasa da arkadaş gruplarıyla takılmak onu çok mutlu eder.</t>
+  </si>
+  <si>
+    <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
+  </si>
+  <si>
+    <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
+  </si>
+  <si>
+    <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
+  </si>
+  <si>
+    <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
+  </si>
+  <si>
+    <t>Bunlar bir iki yıllığına ABD'ye gidiyor,dönerken beraberlerinde orda gördükleri yalan yanlış şeyleri beraberlerinde getiriyorlardı.</t>
+  </si>
+  <si>
+    <t>Yapılan bütün müdahalelere rağmen hayata gözlerini yumdu.</t>
+  </si>
+  <si>
+    <t>Birbirini ezdi insanlar, yumruk kadar simsiyah bir somun ekmek için.</t>
+  </si>
+  <si>
+    <t>Gün geçtikçe artar oldu derdim demiştim; üzülmesin öldüğünde geçer demişsin.</t>
+  </si>
+  <si>
+    <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
+  </si>
+  <si>
+    <t>Babamın sözleri benim için paha biçilemezdi</t>
+  </si>
+  <si>
+    <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
+  </si>
+  <si>
+    <t>Çocukluğumu geçirdiğim ev bugün yıkıldı</t>
+  </si>
+  <si>
+    <t>Hep hayalini kurduğum bölümü kazanamadım</t>
+  </si>
+  <si>
+    <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
+  </si>
+  <si>
+    <t>Diş fırçamı yanımda getirmeyi unutmuşum</t>
+  </si>
+  <si>
+    <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
+  </si>
+  <si>
+    <t>Çikolatayı çok seviyorum ama mideme dokunuyor</t>
+  </si>
+  <si>
+    <t>Kendimiz doğru ifade etmeye çalışırken cümlelerimizi özenle seçmeliyiz.</t>
+  </si>
+  <si>
+    <t>pozitif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negatif </t>
+  </si>
+  <si>
+    <t>negatif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,17 +595,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,15 +941,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78" customWidth="1"/>
+    <col min="1" max="1" width="176.21875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,11 +962,1315 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repo\Python_DuyguAnalizi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3824AAF3-81D7-48A2-BE09-E9C07DACA6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7D7D19-3E84-452A-8B79-18909B4021BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
   <si>
     <t>Cümle</t>
   </si>
@@ -31,496 +31,382 @@
     <t>Negatif</t>
   </si>
   <si>
+    <t>Neden gelmemesi heyecan verici?</t>
+  </si>
+  <si>
+    <t>Sen de amma mutlusun.</t>
+  </si>
+  <si>
+    <t>Sokaklar bugün yapılacak 29 ekim için olan tören yüzünden oldukça kalabalıktı.</t>
+  </si>
+  <si>
+    <t>Bunca yaşadığım, gördüğüm, duyduğum şeylerden sonra onu sevmeyecek değilim.</t>
+  </si>
+  <si>
+    <t>Annem ve babam bu soğuk havada dondurma yememe izin veriyor.</t>
+  </si>
+  <si>
+    <t>Onca işinin gücünün arasında ailesini de bırakıp yanımıza gelerek bizi yüzüstü bırakmadın.</t>
+  </si>
+  <si>
+    <t>Az önce toplantıda öne sürdüğün fikir müthiş!</t>
+  </si>
+  <si>
+    <t>Bu sayfada paylaşılan oyun benim beklediğim kadar kötü çıkmadı.</t>
+  </si>
+  <si>
+    <t>Okulun yeniden açılması umduğum kadar kötü olmadı.</t>
+  </si>
+  <si>
+    <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
+  </si>
+  <si>
+    <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
+  </si>
+  <si>
+    <t>Bu güzel havada başıma böyle bir şeyin gelmesi beni çok rahatsız ediyor.</t>
+  </si>
+  <si>
+    <t>Senin yaptıkların yüzünden sevdiğim işleri yapamamaktan nefret ediyorum.</t>
+  </si>
+  <si>
+    <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
+  </si>
+  <si>
+    <t>Rezalet bir hizmet anlayışınız olduğu için sizi kınıyorum.</t>
+  </si>
+  <si>
+    <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
+  </si>
+  <si>
+    <t>Yapılan etkinlikteki yüzlerce katılımcıyı görüp heyecanlanmamak elde değildi.</t>
+  </si>
+  <si>
+    <t>Dürüstlük onun için en önemli şeydi, kimseye yalan söylemezdi.</t>
+  </si>
+  <si>
+    <t>Çok duygusal bir insan olduğu için söyleyeceklerimizi iki kere düşünür, onu kırmamaya dikkat ederdik.</t>
+  </si>
+  <si>
+    <t>İyi dostlar destek olur. En iyi dostlar ise hiçbir şey olmamış gibi davranır.</t>
+  </si>
+  <si>
+    <t>Merhametli olmak ağlayanla ağlamak değildir. Ağlayanın gözyaşını dindirecek bir çözüm yolu bulmak ya bulmaya çalışmaktır.</t>
+  </si>
+  <si>
+    <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
+  </si>
+  <si>
+    <t>Film galasında giydiği modası geçmiş giysilerle hepimizin gözlerini kanattı.</t>
+  </si>
+  <si>
+    <t>Başımın ağrısı o kadar kuvvetliydi ki öleceğimi zannettim.</t>
+  </si>
+  <si>
+    <t>Karşıya geçmek isterken kamyonun altında kalan kadının hayatını kaybettiği anlar yayında.</t>
+  </si>
+  <si>
+    <t>Egoist bir insan olduğu için onunla konuşmamayı tercih ediyorum.</t>
+  </si>
+  <si>
+    <t>İzlediğimiz film o kadar korkunçtu ki kalp krizi geçirmemize ramak kalmıştı.</t>
+  </si>
+  <si>
+    <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
+  </si>
+  <si>
+    <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
+  </si>
+  <si>
+    <t>Beklediğim  kadar iyi bir tecrübe edinemediğim için üzgünüm.</t>
+  </si>
+  <si>
+    <t>Onun açısından düşününce bunun faydalı olacağını düşünmüyorum.</t>
+  </si>
+  <si>
+    <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
+  </si>
+  <si>
+    <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
+  </si>
+  <si>
+    <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
+  </si>
+  <si>
+    <t>Güvendiğim kişilerle birlikte olunca hiçbir şüphe duymadan istediğim yolda yürümeye devam edebiliyorum.</t>
+  </si>
+  <si>
+    <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
+  </si>
+  <si>
+    <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
+  </si>
+  <si>
+    <t>Akşam yemeği için vermiş olduğum yemek siparişim çok geç geldiğinden dolayı yemekler soğumuştu.</t>
+  </si>
+  <si>
+    <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
+  </si>
+  <si>
+    <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
+  </si>
+  <si>
+    <t>Birkaç gündür hasta olduğu için okula gelmeyen arkadaşının geleceğini duyunca sevindi.</t>
+  </si>
+  <si>
+    <t>Durumun iyi olacağına dair küçük bir umudu dahi yoktu artık.</t>
+  </si>
+  <si>
+    <t>Okula gelirken giydiği mavi gömlek ile hiç de iyi görünmüyordu</t>
+  </si>
+  <si>
+    <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
+  </si>
+  <si>
+    <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
+  </si>
+  <si>
+    <t>Begüm ablasıyla birlikte izlediği filmden çok etkilenmiş günlerce ağlamıştı.</t>
+  </si>
+  <si>
+    <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
+  </si>
+  <si>
+    <t>En zor anında insanın yanında olan ailesi ve dostlarıymış</t>
+  </si>
+  <si>
+    <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
+  </si>
+  <si>
+    <t>Maaşım artık bana yetmemeye başladı</t>
+  </si>
+  <si>
+    <t>Dün akşam televizyonda çıkan filmden hiç zevk alamadım</t>
+  </si>
+  <si>
+    <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
+  </si>
+  <si>
+    <t>Dün arkadaşım arabası ile kaza yapmış</t>
+  </si>
+  <si>
+    <t>Ankaranın yolları çok taşlıymış</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ödevi yaparken artık elim ağrımaya başladı </t>
+  </si>
+  <si>
+    <t>Malesef yarın gelemeyeceğim babam hastalandı</t>
+  </si>
+  <si>
+    <t>Venom filmi baya kötüymüş</t>
+  </si>
+  <si>
+    <t>Dün yemeği yaparken yemeği yakmışım</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Koltuğa doğru yürürken masanın üzerindeki fotoğraf dikkatimi çekti, ne kadar da tatlıymışsın!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Dürüst olmak gerekirse benim de kalbim ona karşı boş değil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kafamın içinde bu bahsettiğin konulara benzer düşünceler yok dersem yalan olur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Geçen cumartesi günü gittiğiniz okulun tanışma partisine çağırsaydın gelmez miydim?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Derse yetişmem için yakalamam gereken son otobüsü yakalamayı başardım ve derse yetiştim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Okulumuzu temsil eden takımımız bilgi yarışmasından derece ile ayrılmış bulunmakta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Telefon uygulamasından söylemiş olduğum yemek, uygulamada yazan süreden geç geldi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Alışveriş sitesinden siparişini verdiğim tekerlekli sandalye yine zamanında bana ulaşmayacak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Arkadaşımı ne kadar sevsem de güzel olmayan sesi ile şarkı söylemesi beni rahatsız ediyor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kendisi ne kadar iyi bir insan olsa da öfke sorunları var.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
+  </si>
+  <si>
+    <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
+  </si>
+  <si>
+    <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
+  </si>
+  <si>
+    <t>Kasa bilgisayarlar daha sessiz ve soğuk olsalar da dizüstü bilgisayarları daha çok seviyorum.</t>
+  </si>
+  <si>
+    <t>RGB ekipmanları sevsem de fazla ışıklar beni çok rahatsız ediyor.</t>
+  </si>
+  <si>
+    <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
+  </si>
+  <si>
+    <t>Küçük ama çok işlevsel alet ve cihazlara hayranım.</t>
+  </si>
+  <si>
+    <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
+  </si>
+  <si>
+    <t>Zamanında ilgilendiği felç hastasının şu anda yürüyebiliyor olduğu gördüğünde mutluluktan göz yaşlarını tutamadı.</t>
+  </si>
+  <si>
+    <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
+  </si>
+  <si>
+    <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
+  </si>
+  <si>
+    <t>Saatlerdir sınav kağıtlarını okumaktan yorulmuş okuma gözlüğü artık canını yakmaya başlamıştı.</t>
+  </si>
+  <si>
+    <t>Doktor covid testinin pozitif çıktığını söylediğinde kendini bir an çok kötü hissetti.</t>
+  </si>
+  <si>
+    <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
+  </si>
+  <si>
+    <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
+  </si>
+  <si>
+    <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
+  </si>
+  <si>
+    <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
+  </si>
+  <si>
+    <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
+  </si>
+  <si>
+    <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
+  </si>
+  <si>
+    <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
+  </si>
+  <si>
+    <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
+  </si>
+  <si>
+    <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
+  </si>
+  <si>
+    <t>Benim sonbaharımda ağaçlar yaprak dökmüyor, bir ilmek sallanıyor sadece.</t>
+  </si>
+  <si>
+    <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
+  </si>
+  <si>
+    <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
+  </si>
+  <si>
+    <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
+  </si>
+  <si>
+    <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
+  </si>
+  <si>
+    <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
+  </si>
+  <si>
+    <t>Ayakkabı fiyatları çok pahalı ama indirim kuponu bulduğum için ucuza geldi ve param cebimde kaldı.</t>
+  </si>
+  <si>
+    <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
+  </si>
+  <si>
+    <t>Adam kendini bir turşuya dönüştürdü! Bu gerçekten ama gerçekten aşırı komik bir olay!</t>
+  </si>
+  <si>
+    <t>Kendimi bildim bileli insanlarla iletişim kurma konusunda normalden bir tık fazla becerikliyim.</t>
+  </si>
+  <si>
+    <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
+  </si>
+  <si>
+    <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
+  </si>
+  <si>
+    <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
+  </si>
+  <si>
+    <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
+  </si>
+  <si>
+    <t>Bu dayanılmaz güzelliğe, sese nasıl hayır diyebilirdim bilmiyorum.</t>
+  </si>
+  <si>
+    <t>Kapıdan çıkıtğı anda ayağı takıldı, fakat arkasından onu nazikçe tutan bir el, onu bu kötü durumdan daha içine girmeden kurtardı.</t>
+  </si>
+  <si>
+    <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
+  </si>
+  <si>
+    <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
+  </si>
+  <si>
+    <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
+  </si>
+  <si>
+    <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
+  </si>
+  <si>
+    <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
+  </si>
+  <si>
+    <t>Bu kadar hızlı gelişen bir teknolojinin duvarları arasında tıkılıp kalan çocuklar, sosyallikten mahrum bir şekilde büyüyor.</t>
+  </si>
+  <si>
+    <t>Yapılan bütün müdahalelere rağmen hayata gözlerini yumdu.</t>
+  </si>
+  <si>
+    <t>Birbirini ezdi insanlar, yumruk kadar simsiyah bir somun ekmek için.</t>
+  </si>
+  <si>
+    <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
+  </si>
+  <si>
+    <t>Babamın sözleri benim için paha biçilemezdi</t>
+  </si>
+  <si>
+    <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
+  </si>
+  <si>
+    <t>Ülkenin gidişatını hiç iyi görmüyorum</t>
+  </si>
+  <si>
+    <t>Savaşlarda taraflar kazanmak uğruna onursuzca davranabiliyorlar</t>
+  </si>
+  <si>
+    <t>Artık yaşamaktan keyif almadığımı farkettim</t>
+  </si>
+  <si>
+    <t>Hep hayalini kurduğum bölümü kazanamadım</t>
+  </si>
+  <si>
+    <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
+  </si>
+  <si>
+    <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
+  </si>
+  <si>
     <t>Pozitif</t>
-  </si>
-  <si>
-    <t>Neden gelmemesi heyecan verici?</t>
-  </si>
-  <si>
-    <t>Konuklarımız ne yaptığımız güzel yemekleri yedi ne el yapımı içeceklerimizden içti.</t>
-  </si>
-  <si>
-    <t>Sokaklar bugün yapılacak 29 ekim için olan tören yüzünden oldukça kalabalıktı.</t>
-  </si>
-  <si>
-    <t>Kendimdeki ve etrafımdaki olayları gün geçtikçe daha iyi anlamaya başlamıştım.</t>
-  </si>
-  <si>
-    <t>Annem ve babam bu soğuk havada dondurma yememe izin veriyor.</t>
-  </si>
-  <si>
-    <t>Az önce toplantıda öne sürdüğün fikir müthiş!</t>
-  </si>
-  <si>
-    <t>O adama güvenme, tam bir düzenbaz.</t>
-  </si>
-  <si>
-    <t>Bu yıl kış mevsimi çok sert geçti, soğuğu sevmiyorum.</t>
-  </si>
-  <si>
-    <t>Şu uygulamadan bulduğum videoyu soluksuz bir şekilde izledim.</t>
-  </si>
-  <si>
-    <t>Bugüne kadar gördüğüm en abartılmış oyuncu olma yolunda ilerliyorsun.</t>
-  </si>
-  <si>
-    <t>Bu kötü ortamda seninle bu güzel sohbeti yapmak beni çok rahatlatıyor.</t>
-  </si>
-  <si>
-    <t>Bu kaldırım taşlarının bu kadar güzel olduğunu daha önce fark etmemiştim.</t>
-  </si>
-  <si>
-    <t>Geceleri iyi bir uyku uyuyamamaktan nefret ediyorum.</t>
-  </si>
-  <si>
-    <t>Bu filmi seninle birlikte tekrar tekrar izlemeye bayılıyorum.</t>
-  </si>
-  <si>
-    <t>Uzun zamandır beklediğimiz bu yarışma hüsran ile sonuçlandı.</t>
-  </si>
-  <si>
-    <t>Geri bildirim hızı, bu kadar hızlı olan bir site gördüğümü hatırlamıyorum.</t>
-  </si>
-  <si>
-    <t>Yapılan etkinlikteki yüzlerce katılımcıyı görüp heyecanlanmamak elde değildi.</t>
-  </si>
-  <si>
-    <t>Müzeye taşınan elmasın öyle paha biçilemez bir güzelliği vardı ki değerini daha da iyi anladım.</t>
-  </si>
-  <si>
-    <t>Bana verdiği hediye manevi olarak çok değerli, hayatım boyunca unutamayacağım bir hediyeydi.</t>
-  </si>
-  <si>
-    <t>Tüm derslerini başarıyla tamamlayarak takdir belgesi almaya hak kazandı.</t>
-  </si>
-  <si>
-    <t>Babası hastayken umudunu hiç kaybetmeyerek babasının iyileşmesinde en büyük rolü o üstlendi.</t>
-  </si>
-  <si>
-    <t>İyi dostlar destek olur. En iyi dostlar ise hiçbir şey olmamış gibi davranır.</t>
-  </si>
-  <si>
-    <t>Merhametli olmak ağlayanla ağlamak değildir. Ağlayanın gözyaşını dindirecek bir çözüm yolu bulmak ya bulmaya çalışmaktır.</t>
-  </si>
-  <si>
-    <t>Yaptığı başarılı işlere rağmen çok mütevazi bir insan olduğundan dolayı övülmeyi hiç sevmezdi.</t>
-  </si>
-  <si>
-    <t>Aylarca yılmadan çalışan ekip, ortaya mükemmel bir proje çıkartarak dereceye girdi.</t>
-  </si>
-  <si>
-    <t>Yıllarca süründükten sonra şans eseri bir gecede yıldızı parladı ve bu günlere geldi.</t>
-  </si>
-  <si>
-    <t>Film galasında giydiği modası geçmiş giysilerle hepimizin gözlerini kanattı.</t>
-  </si>
-  <si>
-    <t>Başımın ağrısı o kadar kuvvetliydi ki öleceğimi zannettim.</t>
-  </si>
-  <si>
-    <t>İzlediğimiz film o kadar korkunçtu ki kalp krizi geçirmemize ramak kalmıştı.</t>
-  </si>
-  <si>
-    <t>Buradaki markette istediğim markanın ürününü bulamadığım için şanssız hissediyorum.</t>
-  </si>
-  <si>
-    <t>Bu eser serginin olmazsa olmaz eşsiz parçalarından birisidir.</t>
-  </si>
-  <si>
-    <t>Yarınki doğum günü partimi düşündükçe heyecandan yerimde duramıyorum.</t>
-  </si>
-  <si>
-    <t>Günün bir kısmını kardeşlerimle geçirmek kadar güzel bir şey yok.</t>
-  </si>
-  <si>
-    <t>Ne olursa olsun yanımda durmaktan vazgeçmediğin için teşekkür ederim.</t>
-  </si>
-  <si>
-    <t>Gideceğimiz yerde çok rahat bir şekilde yaşayabileceğimiz için bizden mutlusu yok.</t>
-  </si>
-  <si>
-    <t>Başladığın bir işi bu kadar kusursuz yapılabileceğini hiç hayal etmemiştim.</t>
-  </si>
-  <si>
-    <t>Durduğumuz dinlenme tesisi muhteşem bir manzaraya sahipti .</t>
-  </si>
-  <si>
-    <t>Ailem yanımda olduğu sürece sırtımın yere gelmeyeceğini biliyorum ve seviniyorum.</t>
-  </si>
-  <si>
-    <t>Annesi çocuğunun kötü bir şey yaptığını düşünmediği için onu uyarma gereği duymadı.</t>
-  </si>
-  <si>
-    <t>Başımdan geçen onca olaya rağmen iyi düşünmeye çalışıyorum.</t>
-  </si>
-  <si>
-    <t>Günün sonunda yine ben kazanmış olacağım için hiç olmadığım kadar mutluyum .</t>
-  </si>
-  <si>
-    <t>Yaptığı hatayı telafi etmek için bu kadar çabaladığını görünce onun hakkında düşüncelerim iyi yönde değişti.</t>
-  </si>
-  <si>
-    <t>Gün geçtikçe aramızdaki ilişkinin daha da büyümesi  beni hiç olmadığım kadar mutlu ediyor.</t>
-  </si>
-  <si>
-    <t>Bu hafta sonu girdiğim ehliyet sınavı çok iyi geçtiği için yarın akşam arkadaşlarımla kutlama yemeğine çıkacağız.</t>
-  </si>
-  <si>
-    <t>Yaptığı ilk iş başvurusu kısa sürede kabul edilince sevinç çığlıkları atmaya başladı.</t>
-  </si>
-  <si>
-    <t>Tatilde kaldığım 5 yıldızlı otelin balkonunun manzarasının güzelliği hala aklımdan çıkmıyor.</t>
-  </si>
-  <si>
-    <t>2020 yılında korona virüs hastalığı başladığı için hiç güzel bir sene değildi.</t>
-  </si>
-  <si>
-    <t>Kuzenim yeni aldığı bisikleti sürerken taşlı yollarda dengesini kaybedip düşmüş.</t>
-  </si>
-  <si>
-    <t>Kaldığım yurtta soğuk havalarda kaloriferleri açmadıkları için hasta oldum ve okula gidemedim.</t>
-  </si>
-  <si>
-    <t>Ayşe ikinci kez korona virüs hastalığına yakalandığı için çok mutsuzdu.</t>
-  </si>
-  <si>
-    <t>Akşam yemeği için vermiş olduğum yemek siparişim çok geç geldiğinden dolayı yemekler soğumuştu.</t>
-  </si>
-  <si>
-    <t>Yetenekli olduğu için ilkokul öğretmeninin yönlendirmesiyle severek resim çizmeye başlamıştı.</t>
-  </si>
-  <si>
-    <t>Babasının da dediği gibi birkaç günlük tatil fikri fena değilmiş.</t>
-  </si>
-  <si>
-    <t>Tuttukları takım şampiyon olunca taraftarların yaşadığı sevinç tarif edilemeyecek kadar büyüktü.</t>
-  </si>
-  <si>
-    <t>Okula gelmeden önce aldığı güzel haber ile artık içi içine sığmıyordu.</t>
-  </si>
-  <si>
-    <t>Aldığı haberle birlikte parlamaya başlayan yeşil gözleri mutluluğunu belli ediyordu.</t>
-  </si>
-  <si>
-    <t>Birkaç gündür hasta olduğu için okula gelmeyen arkadaşının geleceğini duyunca sevindi.</t>
-  </si>
-  <si>
-    <t>Geçen gün kırılan vazonun yenisi ile değiştirilmiş olduğunu görünce gülümsedi.</t>
-  </si>
-  <si>
-    <t>Sipariş ettiği kitaplar baskısı olmadığı için bir ay geç geldi.</t>
-  </si>
-  <si>
-    <t>Çalan şarkı ile birlikte aklına gelenler yüzünden gözleri dolmuştu.</t>
-  </si>
-  <si>
-    <t>Evden gelen sesler ile birlikte hırsız girdiğini düşünüp çok kokrmuştu.</t>
-  </si>
-  <si>
-    <t>Begüm ablasıyla birlikte izlediği filmden çok etkilenmiş günlerce ağlamıştı.</t>
-  </si>
-  <si>
-    <t>Gün geçtikçe hayata dair umutlarının artık tamamen tükendiğini düşünüyordu</t>
-  </si>
-  <si>
-    <t>Kendimdeki ve etrafımdaki olayları gün geçtikçe daha iyi anlamaya başlıyorum</t>
-  </si>
-  <si>
-    <t>En zor anında insanın yanında olan ailesi ve dostlarıymış</t>
-  </si>
-  <si>
-    <t>İnan ben de çocukluğumun geçtiği sokakları çok özledim</t>
-  </si>
-  <si>
-    <t>İki gün sonra benim maaş hesabıma yatmış olacak ondan sonra gezmeye gidebiliriz</t>
-  </si>
-  <si>
-    <t>Artık havalar baya ısınmaya başladı kış bitmiş gibi</t>
-  </si>
-  <si>
-    <t>Dün akşam televizyonda çıkan filmden hiç zevk alamadım</t>
-  </si>
-  <si>
-    <t>Bu kitaptaki ana karakterin babası çok itici bir insan</t>
-  </si>
-  <si>
-    <t>Dün arkadaşım arabası ile kaza yapmış</t>
-  </si>
-  <si>
-    <t>Aldığım buzdolabı bu sabah bir anda sessizleşip bozuldu</t>
-  </si>
-  <si>
-    <t>Ankaranın yolları çok taşlıymış</t>
-  </si>
-  <si>
-    <t>Malesef yarın gelemeyeceğim babam hastalandı</t>
-  </si>
-  <si>
-    <t>Venom filmi baya kötüymüş</t>
-  </si>
-  <si>
-    <t>Dün yemeği yaparken yemeği yakmışım</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Koltuğa doğru yürürken masanın üzerindeki fotoğraf dikkatimi çekti, ne kadar da tatlıymışsın!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Dürüst olmak gerekirse benim de kalbim ona karşı boş değil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Kafamın içinde bu bahsettiğin konulara benzer düşünceler yok dersem yalan olur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Eskiden öğrenmekte zorlandığım konuyu, bu kurs sayesinde kolayca öğrenmiş oldum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Geçen cumartesi günü gittiğiniz okulun tanışma partisine çağırsaydın gelmez miydim?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Okulumuzu temsil eden takımımız bilgi yarışmasından derece ile ayrılmış bulunmakta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Bu problem çok zor görünüyor, bana sorarsan bunu öğretmen dahi çözemez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Okulun hazırladığı gösteriye, işte oldukları için ne annem ne de babam gelebildi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Başımıza ne işler açtın sen, çık çıkabilirsen bu işin içinden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Telefon uygulamasından söylemiş olduğum yemek, uygulamada yazan süreden geç geldi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Yemekhane sırasının uzunluğu sebebiyle sıra bana geldiğinde tatlı alamamış oldum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Uzak mesafede oturduğum için sabah erken kalkmak fazlasıyla yorucu oluyor.</t>
-  </si>
-  <si>
-    <t>Otobüse binmek beni artık pek de yormuyor.</t>
-  </si>
-  <si>
-    <t>Bir programlama dilini öğnrendikten sonra diğerlerini öğrenmek çok daha kolay geliyor.</t>
-  </si>
-  <si>
-    <t>Bunca çalışma ve emekten sonra nihayet tüm derslerini geçebilmişti.</t>
-  </si>
-  <si>
-    <t>Denizin olduğu şehirler olmadığı şehirlere göre çok daha fazla sevilir.</t>
-  </si>
-  <si>
-    <t>Bazı romanların olayları fazla uzatması beni o romandan soğutuyor.</t>
-  </si>
-  <si>
-    <t>Kar yağdığında kar taneleri havadaki sesi tutuyor, ve o sessizlik çok hoşuma gidiyor.</t>
-  </si>
-  <si>
-    <t>Gözlük takmak lens takmaya kıyasla çok daha iyi bana kalırsa.</t>
-  </si>
-  <si>
-    <t>Evdeki sakinlik ve rahatı başka bir şeye değişmem.</t>
-  </si>
-  <si>
-    <t>Klavye ile çok hızlı yazı yazmaya bayılıyorum.</t>
-  </si>
-  <si>
-    <t>Mekanik klavyeler çok ses çıkarmasa da hissiyatlarından dolayı seviyorum.</t>
-  </si>
-  <si>
-    <t>Bu ödev neden hala bitmiyor anlayamıyorum.</t>
-  </si>
-  <si>
-    <t>Telefonunu apartmanın ikinci katından düşürmüş ama çizik dahi olmadığını görünce rahatlamıştı.</t>
-  </si>
-  <si>
-    <t>Uzun süredir görmediğim babamı havalimanında bana güleryüzle bakarken görünce koşup sarıldım ona.</t>
-  </si>
-  <si>
-    <t>İki şirkette yaptıkları ortak anlaşmadan dolayı toplantıdan memnun ayrıldılar.</t>
-  </si>
-  <si>
-    <t>Gece yarısı gençlerin sokaktaki bağrışmalarını duyan yaşlı adam sinirle homurdanarak yatağından kalktı.</t>
-  </si>
-  <si>
-    <t>Bir yıldan fazladır beslediği sokak köpeklerinin toplandığını duyduğunda hüngür hüngür ağladı.</t>
-  </si>
-  <si>
-    <t>Düşünce dizi kanamaya başlayan çocuk acısına dayanamayıp ağlamaya başladı.</t>
-  </si>
-  <si>
-    <t>Ayrıca belirtmeliyim ki ülke ekonomimizin bu kadar kötü olması beni de üzmüyor değil.</t>
-  </si>
-  <si>
-    <t>Yeğenimin gece köpek saldırısına uğraması ailedeki herkesin keyfini kaçırdı.</t>
-  </si>
-  <si>
-    <t>Bu tarz olayları bu kadar sık yaşamak onu yormuş ve bıktırmıştı hayattan.</t>
-  </si>
-  <si>
-    <t>Yorucu günden sonra koltukta uyuyakalmış gördüğü kabusun etkisiyle ter içinde çığlıkla uyandı.</t>
-  </si>
-  <si>
-    <t>Bazı insanların hala makineleşmemiş olması beni mutlu ediyor.</t>
-  </si>
-  <si>
-    <t>Bu pis dünyada insan görmemiş ormanların güzelliği güneşin doğmasını sağlıyor.</t>
-  </si>
-  <si>
-    <t>Bir çocuğun anne sevgisi gibiydi benim sevgim, hiç bitmezcesine.</t>
-  </si>
-  <si>
-    <t>Önümüzdeki aydan itibaren %25 zam alacağım için çok mutluyum.</t>
-  </si>
-  <si>
-    <t>İnsanların toplumsal yerine bireysel farkındalıklarını keşfetmeleri sevindirici bir gelişme</t>
-  </si>
-  <si>
-    <t>Kadın ile erkekler elbette eşit değiller, erkeklerin böyle muhteşem varlıklara karşı hiç şansı yok</t>
-  </si>
-  <si>
-    <t>Yazdığım kitabın bu genç arkadaşıma yol göstermesi kadar güzel bir his yok şu anda.</t>
-  </si>
-  <si>
-    <t>İstanbul demek ha, böyle bir güzellik için yazılanlar yetersiz bile.</t>
-  </si>
-  <si>
-    <t>Zamanında yaptığım fedakarlıklar karşılıklarını vermeye başladılar.</t>
-  </si>
-  <si>
-    <t>Onun yaşamının yokuş aşağı gittiği yıl, benimki de yokuş aşağı gittti.</t>
-  </si>
-  <si>
-    <t>21 yaşımda canlılığımın tükenmişliğinde, hala yaşıyorum ama üç adım önümü göremiyorum.</t>
-  </si>
-  <si>
-    <t>Kadın erkek erdemlerine sahipse kaçıp gitmeli ondan.</t>
-  </si>
-  <si>
-    <t>Bir gün ne de olsa bırakırım demiştim, artık kokain bağımlısıyım.</t>
-  </si>
-  <si>
-    <t>Beni umursuyormuş(!) Bir gece odasında boş ilaç kutusu ve bir oda polisle uğurladım.</t>
-  </si>
-  <si>
-    <t>Öğrendim ki en sevdiğim dizi "You" 3. sezonda hikaye değişikliğine başvurrmuş.</t>
-  </si>
-  <si>
-    <t>Bu sezon şampiyonluk hayalimiz gerçek olamayacak arkadaşlar.</t>
-  </si>
-  <si>
-    <t>Çok severek izlediğim dizinin son 3 bölümü kaldı sadece.</t>
-  </si>
-  <si>
-    <t>Dün akşam izlediğim film aslında çok da fena değildi.</t>
-  </si>
-  <si>
-    <t>Bugün dışarıya çıkarken bot giydiğim için ayaklarım ıslanmadı ve sıcak kaldı.</t>
-  </si>
-  <si>
-    <t>Karanlıkta gürleyen şelalenin içime huzur doldurması ben fazlasıyla mest ediyor.</t>
-  </si>
-  <si>
-    <t>Bana aynısından oldu, hiçbir şey olmuyor. Ertesi gün yine eskisi gibi mutluydum.</t>
-  </si>
-  <si>
-    <t>Bugün hava yağmurlu olmasına rağmen otobüs zamanında geldi ve işe geç kalmadığım için yöneticim beni tebrik etti.</t>
-  </si>
-  <si>
-    <t>Yakın zamanda bir bağlama kursu vardı. Ona katıldım ve artık bağlama çalabiliyorum.</t>
-  </si>
-  <si>
-    <t>Adam kendini bir turşuya dönüştürdü! Bu gerçekten ama gerçekten aşırı komik bir olay!</t>
-  </si>
-  <si>
-    <t>Kendimi bildim bileli insanlarla iletişim kurma konusunda normalden bir tık fazla becerikliyim.</t>
-  </si>
-  <si>
-    <t>Kendini ölümün sessiz huzuruna teslim eden Martin Eden artık bu dünada değil.</t>
-  </si>
-  <si>
-    <t>Bedenim özgür kalsa neye yarar. İçimde kalanlar ruhumu her gün daha fazla acıtır.</t>
-  </si>
-  <si>
-    <t>Gün geçtikçe masadan eksiliyor dostlar. Yalnız kalma korkusuyla huzursuz oluyorum.</t>
-  </si>
-  <si>
-    <t>Bursada işlek bir yolda giderken hatalı sollama yaptığım için bir kaza yaptım.</t>
-  </si>
-  <si>
-    <t>Araba ile yolda giderken benzin bitti ve in cin top oynayan yerde yolda kaldık.</t>
-  </si>
-  <si>
-    <t>Gece güzel ama mahvetmek üzereyim yalan yok, hepinizi üzmek istiyorum.</t>
-  </si>
-  <si>
-    <t>Çocukken beni tam parmağımın ucundan arı sokmuştu canım muazzam yanmıştı.</t>
-  </si>
-  <si>
-    <t>Ne kaldı bak ellerimde, biliyorum gülüyorsun. Her adımım daha derine, ölüyorum.</t>
-  </si>
-  <si>
-    <t>Kapıdan çıkıtğı anda ayağı takıldı, fakat arkasından onu nazikçe tutan bir el, onu bu kötü durumdan daha içine girmeden kurtardı.</t>
-  </si>
-  <si>
-    <t>Sosyal medya platformlarında yaptığı birçok başarısız girişimin sonucunda büyük bir başarı yakaladı.</t>
-  </si>
-  <si>
-    <t>Paylaşacak pek bir şeyi olmasa da arkadaş gruplarıyla takılmak onu çok mutlu eder.</t>
-  </si>
-  <si>
-    <t>Çok hastaydı fakat  annesini her görüşünde içi ısınır, yumuşak bir gülümseme yerleştirirdi yüzüne.</t>
-  </si>
-  <si>
-    <t>Her hafta okuluna aksatmadan gider, inci gibi notlar tutardı.</t>
-  </si>
-  <si>
-    <t>Müziğin ilk notalarında kendini kaybediyor, büyük bir zevkle dans etmeye başlıyor.</t>
-  </si>
-  <si>
-    <t>Kendi bölümü hakkında şaşırtıcı derecede az fikre sahipti.</t>
-  </si>
-  <si>
-    <t>Bunlar bir iki yıllığına ABD'ye gidiyor,dönerken beraberlerinde orda gördükleri yalan yanlış şeyleri beraberlerinde getiriyorlardı.</t>
-  </si>
-  <si>
-    <t>Yapılan bütün müdahalelere rağmen hayata gözlerini yumdu.</t>
-  </si>
-  <si>
-    <t>Birbirini ezdi insanlar, yumruk kadar simsiyah bir somun ekmek için.</t>
-  </si>
-  <si>
-    <t>Gün geçtikçe artar oldu derdim demiştim; üzülmesin öldüğünde geçer demişsin.</t>
-  </si>
-  <si>
-    <t>Öldüğünde çocuklarına üç kuruş bırakamadı, göçtü gitti.</t>
-  </si>
-  <si>
-    <t>Babamın sözleri benim için paha biçilemezdi</t>
-  </si>
-  <si>
-    <t>Evde kimmse yokken bağırarak şarkı söylemeye bayılıyorum</t>
-  </si>
-  <si>
-    <t>Çocukluğumu geçirdiğim ev bugün yıkıldı</t>
-  </si>
-  <si>
-    <t>Hep hayalini kurduğum bölümü kazanamadım</t>
-  </si>
-  <si>
-    <t>Bilgisayarım sürekli donduğu için işlerimi yapamıyorum</t>
-  </si>
-  <si>
-    <t>Diş fırçamı yanımda getirmeyi unutmuşum</t>
-  </si>
-  <si>
-    <t>Bu haberi duyana kadar günüm çok güzel geçiyordu</t>
-  </si>
-  <si>
-    <t>Çikolatayı çok seviyorum ama mideme dokunuyor</t>
-  </si>
-  <si>
-    <t>Kendimiz doğru ifade etmeye çalışırken cümlelerimizi özenle seçmeliyiz.</t>
   </si>
   <si>
     <t>pozitif</t>
@@ -941,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B233"/>
+      <selection activeCell="B2" sqref="B2:B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,15 +849,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -979,7 +865,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -987,114 +873,114 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,7 +988,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +996,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,7 +1012,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1150,7 +1036,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,7 +1044,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1166,7 +1052,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1182,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,7 +1076,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1206,7 +1092,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1100,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,7 +1108,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1230,7 +1116,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1238,7 +1124,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1132,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1140,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,7 +1148,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1270,7 +1156,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1164,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1172,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1180,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,7 +1188,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1310,7 +1196,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,7 +1204,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1326,7 +1212,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,7 +1220,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1342,7 +1228,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1350,7 +1236,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1358,7 +1244,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1366,7 +1252,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1374,7 +1260,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1382,7 +1268,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,7 +1276,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1398,7 +1284,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1406,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1414,7 +1300,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1308,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,7 +1316,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1438,7 +1324,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,7 +1332,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1454,7 +1340,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1462,7 +1348,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1356,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1478,7 +1364,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1486,7 +1372,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1494,7 +1380,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1388,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1510,7 +1396,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1404,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,7 +1412,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1534,7 +1420,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1542,7 +1428,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1550,7 +1436,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1444,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1566,7 +1452,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,7 +1460,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1582,7 +1468,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1590,7 +1476,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1598,7 +1484,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1606,7 +1492,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1614,7 +1500,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1622,7 +1508,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1630,7 +1516,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1638,7 +1524,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1646,7 +1532,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1654,7 +1540,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1662,7 +1548,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1670,7 +1556,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,7 +1564,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1572,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1694,7 +1580,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1702,7 +1588,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1718,7 +1604,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1726,7 +1612,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1734,7 +1620,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1742,7 +1628,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1750,7 +1636,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,7 +1644,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1766,7 +1652,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1774,7 +1660,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1782,7 +1668,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1814,7 +1700,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1822,7 +1708,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1830,7 +1716,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1838,7 +1724,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1846,7 +1732,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1854,7 +1740,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1862,7 +1748,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1870,7 +1756,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1878,7 +1764,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1886,7 +1772,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1894,7 +1780,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1902,7 +1788,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,7 +1796,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1959,318 +1845,6 @@
       </c>
       <c r="B126" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>146</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>163</v>
-      </c>
-      <c r="B162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>165</v>
-      </c>
-      <c r="B164" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
